--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>Scenario</t>
   </si>
@@ -41,6 +41,9 @@
     <t>expectedCode</t>
   </si>
   <si>
+    <t>TokenName</t>
+  </si>
+  <si>
     <t>valid_creds</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>POST</t>
   </si>
   <si>
+    <t>AdminToken</t>
+  </si>
+  <si>
     <t>invalid_creds</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
     <t>Daffodil33</t>
   </si>
   <si>
+    <t>DieticianToken1</t>
+  </si>
+  <si>
     <t>D123@gmail.com</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t>adPatient34202@gmail.com</t>
   </si>
   <si>
+    <t>PatientToken1</t>
+  </si>
+  <si>
     <t>@gmail.com</t>
   </si>
   <si>
@@ -252,9 +264,6 @@
   </si>
   <si>
     <t>1986-12-12</t>
-  </si>
-  <si>
-    <t>AdminToken</t>
   </si>
   <si>
     <t>/logoutdietician</t>
@@ -274,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -289,6 +298,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -312,14 +329,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -349,6 +358,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -358,21 +389,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +436,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,75 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -504,6 +513,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,19 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +591,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,13 +645,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,103 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,15 +692,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,6 +710,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -721,6 +739,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,21 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -774,188 +792,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -967,13 +973,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="48" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="48" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1316,13 +1322,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="23.828125" customWidth="1"/>
@@ -1330,72 +1336,79 @@
     <col min="4" max="4" width="10.5390625" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="13.4375" customWidth="1"/>
+    <col min="8" max="8" width="14.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="15.2" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="2" customFormat="1" ht="15.2" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+    </row>
+    <row r="2" s="3" customFormat="1" ht="15" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
         <v>200</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G3">
         <v>401</v>
@@ -1403,22 +1416,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="G4">
         <v>405</v>
@@ -1426,22 +1439,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5">
         <v>401</v>
@@ -1449,68 +1462,71 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G6">
         <v>415</v>
       </c>
     </row>
-    <row r="7" ht="14.8" spans="1:7">
+    <row r="7" ht="14.8" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3">
         <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G8">
         <v>401</v>
@@ -1518,22 +1534,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>17</v>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="G9">
         <v>405</v>
@@ -1541,22 +1557,22 @@
     </row>
     <row r="10" ht="14.8" spans="1:7">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G10">
         <v>401</v>
@@ -1564,68 +1580,71 @@
     </row>
     <row r="11" ht="14.8" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G11">
         <v>415</v>
       </c>
     </row>
-    <row r="12" ht="14.8" spans="1:7">
+    <row r="12" ht="14.8" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="6">
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="G13">
         <v>401</v>
@@ -1633,22 +1652,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>17</v>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="G14">
         <v>405</v>
@@ -1656,22 +1675,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G15">
         <v>401</v>
@@ -1679,22 +1698,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G16">
         <v>415</v>
@@ -1744,107 +1763,107 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>7686123101</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>43</v>
+      <c r="C2" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>677976</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>7686123102</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>52</v>
+      <c r="C3" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I3">
         <v>365481</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1880,89 +1899,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>6375480001</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>68</v>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>6375480002</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
+      <c r="E3" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1978,20 +1997,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.4375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13.4375" customWidth="1"/>
+    <col min="4" max="4" width="14.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.8" spans="1:3">
+    <row r="1" ht="14.8" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2001,71 +2021,92 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10560"/>
+    <workbookView windowWidth="28800" windowHeight="10560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>Scenario</t>
   </si>
@@ -283,10 +283,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -359,16 +359,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,22 +389,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -411,6 +404,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -428,14 +428,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,7 +465,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,25 +479,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -513,31 +513,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,55 +669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,89 +681,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -719,15 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -739,21 +754,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,149 +792,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,19 +957,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +989,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1324,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1339,55 +1369,55 @@
     <col min="8" max="8" width="14.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15.2" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="11" customFormat="1" ht="15.2" spans="1:8">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" spans="1:8">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="6" customFormat="1" ht="15" spans="1:8">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
         <v>200</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1395,19 +1425,19 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G3">
@@ -1424,13 +1454,13 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G4">
@@ -1441,19 +1471,19 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G5">
@@ -1464,19 +1494,19 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G6">
@@ -1487,22 +1517,22 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
         <v>200</v>
       </c>
       <c r="H7" t="s">
@@ -1513,19 +1543,19 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G8">
@@ -1536,19 +1566,19 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G9">
@@ -1559,19 +1589,19 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G10">
@@ -1582,19 +1612,19 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G11">
@@ -1605,22 +1635,22 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>200</v>
       </c>
       <c r="H12" t="s">
@@ -1637,13 +1667,13 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G13">
@@ -1654,19 +1684,19 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="G14">
@@ -1677,19 +1707,19 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G15">
@@ -1700,19 +1730,19 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G16">
@@ -1744,7 +1774,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
@@ -1803,13 +1833,13 @@
       <c r="B2">
         <v>7686123101</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F2" t="s">
@@ -1838,13 +1868,13 @@
       <c r="B3">
         <v>7686123102</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="23" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F3" t="s">
@@ -1939,7 +1969,7 @@
       <c r="D2">
         <v>6375480001</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F2" t="s">
@@ -1951,7 +1981,7 @@
       <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="24" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1968,7 +1998,7 @@
       <c r="D3">
         <v>6375480002</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>80</v>
       </c>
       <c r="F3" t="s">
@@ -1980,7 +2010,7 @@
       <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="24" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1997,117 +2027,224 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.4375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="13.4375" customWidth="1"/>
-    <col min="4" max="4" width="14.5625" customWidth="1"/>
+    <col min="5" max="5" width="14.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.8" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" ht="14.8" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>200</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>200</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1">
+        <v>400</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="1">
         <v>404</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="1">
         <v>404</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="1">
         <v>404</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1">
+        <v>405</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1">
+        <v>405</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1">
+        <v>405</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.saini\git\Team3_AssuredAchievers_Aug24\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622D140-29AE-4EB8-9A94-F9D4AC237322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10560"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
     <sheet name="dietician" sheetId="2" r:id="rId2"/>
     <sheet name="patient" sheetId="3" r:id="rId3"/>
-    <sheet name="LogOutSheet" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Morbidity" sheetId="5" r:id="rId4"/>
+    <sheet name="LogOutSheet" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
   <si>
     <t>Scenario</t>
   </si>
@@ -276,19 +282,22 @@
   </si>
   <si>
     <t>/logoutdieticianddff</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>invalidendpoint</t>
+  </si>
+  <si>
+    <t>/morbidityin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +325,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,7 +332,6 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,136 +364,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,182 +390,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -694,255 +399,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -955,13 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -973,13 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="48" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
@@ -1000,65 +463,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1316,37 +736,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="23.828125" customWidth="1"/>
-    <col min="3" max="3" width="13.1484375" customWidth="1"/>
-    <col min="4" max="4" width="10.5390625" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="13.4375" customWidth="1"/>
-    <col min="8" max="8" width="14.5625" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" customWidth="1"/>
+    <col min="5" max="5" width="13.86328125" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" customWidth="1"/>
+    <col min="8" max="8" width="14.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15.2" spans="1:8">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1365,14 +785,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15" spans="1:8">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="15.75">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1391,14 +811,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1414,7 +834,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1430,14 +850,14 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G4">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +867,7 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1460,11 +880,11 @@
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -1473,7 +893,7 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1483,14 +903,14 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" ht="14.8" spans="1:8">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1509,7 +929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1532,7 +952,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1548,24 +968,24 @@
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G9">
         <v>405</v>
       </c>
     </row>
-    <row r="10" ht="14.8" spans="1:7">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1578,20 +998,20 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" ht="14.8" spans="1:7">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1601,14 +1021,14 @@
         <v>415</v>
       </c>
     </row>
-    <row r="12" ht="14.8" spans="1:8">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1627,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1650,7 +1070,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1666,14 +1086,14 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>19</v>
       </c>
       <c r="G14">
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1683,7 +1103,7 @@
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1696,7 +1116,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1129,7 @@
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1721,44 +1141,42 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Team123@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Team3.admin@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId2" display="Team3.admin@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId2" display="Team3.admin@gmail.com" tooltip="mailto:Team3.admin@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId3" display="D123@gmail.com" tooltip="mailto:D123@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId4" display="adDietician63671@gmail.com" tooltip="mailto:adDietician63671@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId4" display="adDietician63671@gmail.com" tooltip="mailto:adDietician63671@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId5" display="adPatient96010@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId5" display="adPatient96010@gmail.com"/>
-    <hyperlink ref="B16" r:id="rId5" display="adPatient96010@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId4" display="adDietician63671@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="mailto:Team3.admin@gmail.com" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" r:id="rId5" tooltip="mailto:D123@gmail.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" tooltip="mailto:adDietician63671@gmail.com" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="mailto:adDietician63671@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
-    <col min="4" max="4" width="9.3125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="11.8125" customWidth="1"/>
-    <col min="8" max="8" width="13.5625" customWidth="1"/>
-    <col min="9" max="9" width="15.5625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="8" max="8" width="13.53125" customWidth="1"/>
+    <col min="9" max="9" width="15.53125" customWidth="1"/>
+    <col min="10" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="9.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1803,13 +1221,13 @@
       <c r="B2">
         <v>7686123101</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F2" t="s">
@@ -1838,7 +1256,7 @@
       <c r="B3">
         <v>7686123102</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
@@ -1868,33 +1286,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="di1eticiandsd0111xyz1@gmail.com" tooltip="mailto:di1eticiandsd0111xyz1@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="di2eticiandsd0221xyz3@gmail.com" tooltip="mailto:di2eticiandsd0221xyz3@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:di1eticiandsd0111xyz1@gmail.com" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" tooltip="mailto:di2eticiandsd0221xyz3@gmail.com" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="19.3125" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.46484375" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="14.4375" customWidth="1"/>
-    <col min="9" max="9" width="14.9375" customWidth="1"/>
+    <col min="8" max="8" width="14.46484375" customWidth="1"/>
+    <col min="9" max="9" width="14.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1951,11 +1367,11 @@
       <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -1980,153 +1396,169 @@
       <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="patient22@gmail.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="patient11@gmail.com" tooltip="mailto:patient11@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="mailto:patient11@gmail.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.4375" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.4375" customWidth="1"/>
-    <col min="4" max="4" width="14.5625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.8" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>404</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>404</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
-        <v>404</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.46484375" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" customWidth="1"/>
+    <col min="3" max="3" width="13.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>404</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.saini\git\Team3_AssuredAchievers_Aug24\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622D140-29AE-4EB8-9A94-F9D4AC237322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADFDACF-6AB6-4528-B108-F18D97794CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="14205" windowHeight="8633" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
     <sheet name="dietician" sheetId="2" r:id="rId2"/>
     <sheet name="patient" sheetId="3" r:id="rId3"/>
-    <sheet name="Morbidity" sheetId="5" r:id="rId4"/>
-    <sheet name="LogOutSheet" sheetId="4" r:id="rId5"/>
+    <sheet name="LogOutSheet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>Scenario</t>
   </si>
@@ -282,15 +281,6 @@
   </si>
   <si>
     <t>/logoutdieticianddff</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>invalidendpoint</t>
-  </si>
-  <si>
-    <t>/morbidityin</t>
   </si>
 </sst>
 </file>
@@ -1410,46 +1400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.53125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.saini\git\Team3_AssuredAchievers_Aug24\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADFDACF-6AB6-4528-B108-F18D97794CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5401BE6-4985-43F9-8E44-4AFE0309C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14205" windowHeight="8633" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
     <sheet name="dietician" sheetId="2" r:id="rId2"/>
     <sheet name="patient" sheetId="3" r:id="rId3"/>
     <sheet name="LogOutSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="MorbidityTests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="95">
   <si>
     <t>Scenario</t>
   </si>
@@ -281,6 +282,33 @@
   </si>
   <si>
     <t>/logoutdieticianddff</t>
+  </si>
+  <si>
+    <t>testname</t>
+  </si>
+  <si>
+    <t>Fasting Glucose</t>
+  </si>
+  <si>
+    <t>Average Glucose</t>
+  </si>
+  <si>
+    <t>Plasma Glucose</t>
+  </si>
+  <si>
+    <t>HBA1C</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1516,4 +1544,69 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F0E4D2-1F22-4437-8536-E7A170FBCF9C}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10560" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="10700"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
   <si>
     <t>Scenario</t>
   </si>
@@ -38,12 +38,12 @@
     <t>method</t>
   </si>
   <si>
+    <t>TokenName</t>
+  </si>
+  <si>
     <t>expectedCode</t>
   </si>
   <si>
-    <t>TokenName</t>
-  </si>
-  <si>
     <t>valid_creds</t>
   </si>
   <si>
@@ -92,6 +92,18 @@
     <t>application/xml</t>
   </si>
   <si>
+    <t>D123@gmail.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>adDietician63671@gmail.com</t>
+  </si>
+  <si>
+    <t>Horse77</t>
+  </si>
+  <si>
     <t>adDietician78178@gmail.com</t>
   </si>
   <si>
@@ -101,16 +113,10 @@
     <t>DieticianToken1</t>
   </si>
   <si>
-    <t>D123@gmail.com</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>adDietician63671@gmail.com</t>
-  </si>
-  <si>
-    <t>Horse77</t>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <t>adPatient96010@gmail.com</t>
   </si>
   <si>
     <t>adPatient34202@gmail.com</t>
@@ -119,12 +125,6 @@
     <t>PatientToken1</t>
   </si>
   <si>
-    <t>@gmail.com</t>
-  </si>
-  <si>
-    <t>adPatient96010@gmail.com</t>
-  </si>
-  <si>
     <t>scenario</t>
   </si>
   <si>
@@ -161,55 +161,136 @@
     <t>dietician1</t>
   </si>
   <si>
-    <t>1891-06-25</t>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>Dieticianphalak@gmail.com</t>
+  </si>
+  <si>
+    <t>phalak</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>NorthStreet</t>
+  </si>
+  <si>
+    <t>parmar</t>
+  </si>
+  <si>
+    <t>1956-11-26T18:14:08.570Z</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Nehaal</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.571Z</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>SouthEast</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.572Z</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.573Z</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.574Z</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.575Z</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.576Z</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.577Z</t>
+  </si>
+  <si>
+    <t>dietician2</t>
+  </si>
+  <si>
+    <t>2003-10-06T18:14:08.578Z</t>
   </si>
   <si>
     <t>BE</t>
   </si>
   <si>
-    <t>di1eticiandsd0111xyz1@gmail.com</t>
-  </si>
-  <si>
-    <t>ash</t>
-  </si>
-  <si>
-    <t>Lucknow</t>
+    <t>Dieticiansakhi@gmail.com</t>
+  </si>
+  <si>
+    <t>sakhi</t>
+  </si>
+  <si>
+    <t>pune</t>
   </si>
   <si>
     <t>Sai</t>
   </si>
   <si>
-    <t>MG</t>
-  </si>
-  <si>
-    <t>Nehaal</t>
-  </si>
-  <si>
-    <t>dietician2</t>
-  </si>
-  <si>
-    <t>1891-06-26</t>
-  </si>
-  <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>di2eticiandsd0221xyz3@gmail.com</t>
-  </si>
-  <si>
-    <t>phalak</t>
-  </si>
-  <si>
-    <t>Smyrna</t>
-  </si>
-  <si>
-    <t>Star</t>
-  </si>
-  <si>
-    <t>SouthEast</t>
-  </si>
-  <si>
-    <t>parmar</t>
+    <t>shukla</t>
+  </si>
+  <si>
+    <t>dietician1update</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.578Z</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.579Z</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.580Z</t>
+  </si>
+  <si>
+    <t>Dieticianphalak1@gmail.com</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.581Z</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.582Z</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.583Z</t>
+  </si>
+  <si>
+    <t>NorthernStar</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.584Z</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.585Z</t>
+  </si>
+  <si>
+    <t>BarringtonFront</t>
+  </si>
+  <si>
+    <t>2005-11-06T18:14:08.586Z</t>
+  </si>
+  <si>
+    <t>patki</t>
   </si>
   <si>
     <t>FirstName</t>
@@ -266,16 +347,16 @@
     <t>1986-12-12</t>
   </si>
   <si>
+    <t>/logoutdieticianinvalid</t>
+  </si>
+  <si>
+    <t>DieticianToken</t>
+  </si>
+  <si>
+    <t>PatientToken</t>
+  </si>
+  <si>
     <t>/logoutdietician</t>
-  </si>
-  <si>
-    <t>DieticianToken</t>
-  </si>
-  <si>
-    <t>PatientToken</t>
-  </si>
-  <si>
-    <t>/logoutdieticianddff</t>
   </si>
 </sst>
 </file>
@@ -283,8 +364,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -320,14 +401,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -348,6 +421,14 @@
       <color rgb="FF2A00FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,7 +454,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -382,17 +478,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,14 +508,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -429,28 +516,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +536,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -479,12 +552,20 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -513,19 +594,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,151 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,22 +795,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,7 +804,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +820,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,17 +867,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -793,17 +874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,144 +893,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,28 +1057,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1006,7 +1084,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="48" applyFill="1">
@@ -1018,10 +1096,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="48" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1354,97 +1438,97 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="23.828125" customWidth="1"/>
+    <col min="2" max="2" width="28.1875" customWidth="1"/>
     <col min="3" max="3" width="13.1484375" customWidth="1"/>
     <col min="4" max="4" width="10.5390625" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="13.4375" customWidth="1"/>
-    <col min="8" max="8" width="14.5625" customWidth="1"/>
+    <col min="7" max="7" width="14.5625" customWidth="1"/>
+    <col min="8" max="8" width="13.4375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="15.2" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="10" customFormat="1" ht="15.2" spans="1:8">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="1:8">
-      <c r="A2" s="14" t="s">
+    <row r="2" s="7" customFormat="1" ht="15" spans="1:8">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7">
         <v>200</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1454,20 +1538,20 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1477,276 +1561,276 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>401</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>415</v>
       </c>
     </row>
-    <row r="7" ht="14.8" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" ht="14.8" spans="1:8">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" ht="14.8" spans="1:8">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" ht="14.8" spans="1:8">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>200</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="H12">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G9">
+      <c r="H13">
         <v>405</v>
       </c>
     </row>
-    <row r="10" ht="14.8" spans="1:7">
-      <c r="A10" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" ht="14.8" spans="1:7">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="12" ht="14.8" spans="1:8">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6">
-        <v>200</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G15">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="G16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>415</v>
+      <c r="H16" s="7">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1755,13 +1839,15 @@
     <hyperlink ref="B2" r:id="rId2" display="Team3.admin@gmail.com"/>
     <hyperlink ref="B5" r:id="rId2" display="Team3.admin@gmail.com"/>
     <hyperlink ref="B6" r:id="rId2" display="Team3.admin@gmail.com" tooltip="mailto:Team3.admin@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId3" display="D123@gmail.com" tooltip="mailto:D123@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId3" display="D123@gmail.com" tooltip="mailto:D123@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId4" display="adDietician63671@gmail.com" tooltip="mailto:adDietician63671@gmail.com"/>
     <hyperlink ref="B10" r:id="rId4" display="adDietician63671@gmail.com" tooltip="mailto:adDietician63671@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId4" display="adDietician63671@gmail.com" tooltip="mailto:adDietician63671@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId5" display="adPatient96010@gmail.com"/>
     <hyperlink ref="B14" r:id="rId5" display="adPatient96010@gmail.com"/>
     <hyperlink ref="B15" r:id="rId5" display="adPatient96010@gmail.com"/>
-    <hyperlink ref="B16" r:id="rId5" display="adPatient96010@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId4" display="adDietician63671@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId4" display="adDietician63671@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId6" display="adDietician78178@gmail.com" tooltip="mailto:adDietician78178@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId7" display="adPatient34202@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1771,27 +1857,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.890625" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="9.3125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="11.8125" customWidth="1"/>
-    <col min="8" max="8" width="13.5625" customWidth="1"/>
+    <col min="8" max="8" width="11.5859375" customWidth="1"/>
     <col min="9" max="9" width="15.5625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="11.8515625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1825,81 +1913,762 @@
       <c r="K1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2">
+        <v>7647867743</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <v>123457</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
         <v>7686123101</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3">
+        <v>677976</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>7686123103</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>365482</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>7686123104</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5">
+        <v>365483</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>7686123105</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>365484</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>7686123106</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>7686123107</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>365486</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>7686123108</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>365487</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>7686123109</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>365488</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>5653143772</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>875471</v>
+      </c>
+      <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="I2">
-        <v>677976</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:12">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>7686123110</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>365488</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3">
-        <v>7686123102</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="L14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>7686123111</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>365488</v>
+      </c>
+      <c r="J15" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3">
-        <v>365481</v>
-      </c>
-      <c r="J3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
+      <c r="K15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>7686123112</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>365489</v>
+      </c>
+      <c r="J16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>7686123113</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17">
+        <v>365490</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>7686123114</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>365491</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>7686123115</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>365492</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>7686123116</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>365493</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21">
+        <v>7686123117</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21">
+        <v>365494</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22">
+        <v>7686123118</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22">
+        <v>365495</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>7686123119</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23">
+        <v>365496</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="di1eticiandsd0111xyz1@gmail.com" tooltip="mailto:di1eticiandsd0111xyz1@gmail.com"/>
-    <hyperlink ref="E3" r:id="rId2" display="di2eticiandsd0221xyz3@gmail.com" tooltip="mailto:di2eticiandsd0221xyz3@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E7" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E11" r:id="rId2" display="Dieticiansakhi@gmail.com" tooltip="mailto:Dieticiansakhi@gmail.com"/>
+    <hyperlink ref="E14" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E15" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId1" display="Dieticianphalak@gmail.com" tooltip="mailto:Dieticianphalak@gmail.com"/>
+    <hyperlink ref="E17" r:id="rId3" display="Dieticianphalak1@gmail.com" tooltip="mailto:Dieticianphalak1@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1932,10 +2701,10 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
         <v>36</v>
@@ -1944,13 +2713,13 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
@@ -1958,60 +2727,60 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>6375480001</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>76</v>
+        <v>102</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>6375480002</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2027,18 +2796,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.4375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="13.4375" customWidth="1"/>
-    <col min="5" max="5" width="14.5625" customWidth="1"/>
+    <col min="4" max="4" width="14.5625" customWidth="1"/>
+    <col min="5" max="5" width="13.4375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.8" spans="1:5">
@@ -2048,13 +2817,13 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2063,188 +2832,179 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-      <c r="D2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1">
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="1">
-        <v>200</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="1">
-        <v>400</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="1">
-        <v>404</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="1">
-        <v>404</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1">
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="1">
-        <v>404</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1">
-        <v>405</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1">
-        <v>405</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="1">
-        <v>405</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/UserDataFile.xlsx
+++ b/src/test/resources/UserDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaurav.saini\git\Team3_AssuredAchievers_Aug24\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5401BE6-4985-43F9-8E44-4AFE0309C7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF9EB2-E866-442C-9F20-C5C064B7C914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,7 +308,7 @@
     <t>T3</t>
   </si>
   <si>
-    <t>T</t>
+    <t>JK</t>
   </si>
 </sst>
 </file>
@@ -1608,5 +1608,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>